--- a/Writing/Good Boy Voice Lines.xlsx
+++ b/Writing/Good Boy Voice Lines.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548F7227-2E15-4E9B-AFCE-92500ECC3BF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
   <si>
     <t>Part</t>
   </si>
@@ -325,9 +334,6 @@
     <t>Inspect Photo - Hike</t>
   </si>
   <si>
-    <t>That really was the best, wasn't it?</t>
-  </si>
-  <si>
     <t>I'm sorry we can't do those anymore, bud. Really.</t>
   </si>
   <si>
@@ -359,29 +365,49 @@
   </si>
   <si>
     <t>Come on, buddy. You know better than to mess with his jacket.</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Puppy</t>
+  </si>
+  <si>
+    <t>You were the cutest puppy. Heck, you still are.</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Big Dog</t>
+  </si>
+  <si>
+    <t>I still can't believe how much you've grown. Paul couldn't, either.</t>
+  </si>
+  <si>
+    <t>Best day of my life. Paul tried for twenty minutes to get you into that picture, but you just kept running away. Remember?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -397,55 +423,354 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="34.29"/>
-    <col customWidth="1" min="3" max="3" width="57.43"/>
-    <col customWidth="1" min="4" max="4" width="23.57"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -479,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -493,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -507,7 +832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -521,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -535,7 +860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -549,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -563,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -577,7 +902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -591,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -605,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -616,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -627,7 +952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -638,7 +963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -649,7 +974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -660,7 +985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -671,7 +996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -682,7 +1007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -693,7 +1018,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -704,7 +1029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -715,7 +1040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -726,7 +1051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -737,7 +1062,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -748,7 +1073,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -759,7 +1084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -770,7 +1095,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -781,7 +1106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -792,7 +1117,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -803,7 +1128,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
@@ -814,7 +1139,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
@@ -825,7 +1150,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -836,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
@@ -847,7 +1172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -858,7 +1183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -869,7 +1194,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
@@ -880,7 +1205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
@@ -891,7 +1216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -902,7 +1227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -913,7 +1238,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
@@ -924,7 +1249,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>65</v>
       </c>
@@ -935,7 +1260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
@@ -946,7 +1271,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -957,7 +1282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -968,7 +1293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>65</v>
       </c>
@@ -979,7 +1304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
@@ -990,7 +1315,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
@@ -1001,7 +1326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1012,7 +1337,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -1023,7 +1348,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -1034,7 +1359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -1045,7 +1370,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -1056,7 +1381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
@@ -1067,7 +1392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -1078,7 +1403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -1089,7 +1414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -1100,7 +1425,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>90</v>
       </c>
@@ -1111,7 +1436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>90</v>
       </c>
@@ -1122,7 +1447,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -1133,7 +1458,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>90</v>
       </c>
@@ -1144,7 +1469,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>98</v>
       </c>
@@ -1155,7 +1480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>98</v>
       </c>
@@ -1166,7 +1491,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>98</v>
       </c>
@@ -1174,10 +1499,10 @@
         <v>103</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>98</v>
       </c>
@@ -1185,65 +1510,87 @@
         <v>103</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B71" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72">
+    </row>
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B72" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Writing/Good Boy Voice Lines.xlsx
+++ b/Writing/Good Boy Voice Lines.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksj\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548F7227-2E15-4E9B-AFCE-92500ECC3BF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,9 +297,6 @@
     <t>Fetch - Part 3</t>
   </si>
   <si>
-    <t>That's *cough* that's a real nice branch, bud. Good job.</t>
-  </si>
-  <si>
     <t>Medication Time - Part 3</t>
   </si>
   <si>
@@ -380,12 +376,15 @@
   </si>
   <si>
     <t>Best day of my life. Paul tried for twenty minutes to get you into that picture, but you just kept running away. Remember?</t>
+  </si>
+  <si>
+    <t>That's *cough* that's real nice, bud. Good job.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -753,24 +752,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -804,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -818,7 +817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -846,7 +845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -860,7 +859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -874,7 +873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -888,7 +887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -902,7 +901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -916,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -930,7 +929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -941,7 +940,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -952,7 +951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -963,7 +962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -974,7 +973,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -985,7 +984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -996,7 +995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1051,7 +1050,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1095,7 +1094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -1106,7 +1105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -1183,7 +1182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -1238,7 +1237,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
@@ -1249,7 +1248,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>65</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -1282,7 +1281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -1293,7 +1292,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -1370,7 +1369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>90</v>
       </c>
@@ -1433,161 +1432,161 @@
         <v>91</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="4" t="s">
+    </row>
+    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="B66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C66" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="4" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="4" t="s">
+    </row>
+    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C69" s="4" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C70" s="4" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="4" t="s">
+    </row>
+    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="4" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C75" s="4" t="s">
+    </row>
+    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Writing/Good Boy Voice Lines.xlsx
+++ b/Writing/Good Boy Voice Lines.xlsx
@@ -348,9 +348,6 @@
     <t>Inspect Photo - 70s NY Thing</t>
   </si>
   <si>
-    <t>I almost forgot about that one. I think that's right around when Paul and I met.</t>
-  </si>
-  <si>
     <t>Inspect Item - Hiking Backpack</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>That's *cough* that's real nice, bud. Good job.</t>
+  </si>
+  <si>
+    <t>My trip to Central Park! That's right around when Paul and I met. I just couldn't believe how many people there were.</t>
   </si>
 </sst>
 </file>
@@ -758,8 +758,8 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1432,7 @@
         <v>91</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
         <v>102</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>108</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1550,10 +1550,10 @@
         <v>97</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1561,10 +1561,10 @@
         <v>97</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1572,10 +1572,10 @@
         <v>97</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1583,10 +1583,10 @@
         <v>97</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Writing/Good Boy Voice Lines.xlsx
+++ b/Writing/Good Boy Voice Lines.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksj\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9208BA3-236B-4EBE-9F00-C3896564C860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="137">
   <si>
     <t>Part</t>
   </si>
@@ -315,9 +316,6 @@
     <t>All Parts</t>
   </si>
   <si>
-    <t>Inspect Photo - Owner and Partner</t>
-  </si>
-  <si>
     <t>I know, bud. I miss him, too.</t>
   </si>
   <si>
@@ -379,13 +377,67 @@
   </si>
   <si>
     <t>My trip to Central Park! That's right around when Paul and I met. I just couldn't believe how many people there were.</t>
+  </si>
+  <si>
+    <t>Replaced</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Halloween Party</t>
+  </si>
+  <si>
+    <t>Paul's first Halloween with us. He and the guys really hit it off.</t>
+  </si>
+  <si>
+    <t>That was supposed to be a family photo, remember? Paul just couldn't get you to stay in frame!</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Paul with Baby</t>
+  </si>
+  <si>
+    <t>Paul always wanted kids. I guess you and his nephew were the closest he could get.</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Crazy Paul</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Drinks</t>
+  </si>
+  <si>
+    <t>He really was one hell of a crazy guy. I don't think he could sit for more than one photo without making some kinda face.</t>
+  </si>
+  <si>
+    <t>I think that's the last time we went out together. It just got too hard after that.</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Camping (Duo)</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Oscar Truck</t>
+  </si>
+  <si>
+    <t>Damn, my hair really did look better back then.</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Camping (Group)</t>
+  </si>
+  <si>
+    <t>Not pictured - Paul running off to keep your ass from jumping in the river.</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Wedding</t>
+  </si>
+  <si>
+    <t>Inspect Photo - Lobster Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betty and Jim's wedding. See us there, upper left? You know, they kept asking us when we were gonna tie it. I should give 'em a call. It's been too long. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -400,8 +452,13 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +477,18 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -433,12 +502,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,24 +826,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,8 +862,11 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -803,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -817,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -831,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -845,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -859,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -873,7 +950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -887,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -901,7 +978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -915,7 +992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
@@ -929,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
@@ -940,7 +1017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
@@ -951,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -962,7 +1039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -973,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
@@ -984,7 +1061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -1006,7 +1083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -1017,7 +1094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -1039,7 +1116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1050,7 +1127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
@@ -1061,7 +1138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -1072,7 +1149,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
@@ -1083,7 +1160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -1094,7 +1171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -1116,7 +1193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>35</v>
       </c>
@@ -1127,7 +1204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1215,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>18</v>
       </c>
@@ -1160,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>18</v>
       </c>
@@ -1171,7 +1248,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +1259,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -1193,7 +1270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>55</v>
       </c>
@@ -1204,7 +1281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>55</v>
       </c>
@@ -1215,7 +1292,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -1226,7 +1303,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>60</v>
       </c>
@@ -1237,7 +1314,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>60</v>
       </c>
@@ -1248,7 +1325,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>65</v>
       </c>
@@ -1259,7 +1336,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>65</v>
       </c>
@@ -1270,7 +1347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -1281,7 +1358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>65</v>
       </c>
@@ -1292,7 +1369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>65</v>
       </c>
@@ -1303,7 +1380,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>65</v>
       </c>
@@ -1314,7 +1391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>65</v>
       </c>
@@ -1325,7 +1402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>65</v>
       </c>
@@ -1336,7 +1413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>65</v>
       </c>
@@ -1347,7 +1424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>65</v>
       </c>
@@ -1358,7 +1435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
@@ -1369,7 +1446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
@@ -1380,7 +1457,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>65</v>
       </c>
@@ -1391,7 +1468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>65</v>
       </c>
@@ -1402,7 +1479,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -1413,7 +1490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -1424,7 +1501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>90</v>
       </c>
@@ -1432,10 +1509,10 @@
         <v>91</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>90</v>
       </c>
@@ -1446,7 +1523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>90</v>
       </c>
@@ -1457,7 +1534,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>90</v>
       </c>
@@ -1468,128 +1545,227 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="4" t="s">
+    </row>
+    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="4" t="s">
+    </row>
+    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="4" t="s">
+      <c r="C68" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="C71" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="4" t="s">
+    </row>
+    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>112</v>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Writing/Good Boy Voice Lines.xlsx
+++ b/Writing/Good Boy Voice Lines.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksj\Documents\Game Dev 1\Project 4\GameDevP4\Writing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9208BA3-236B-4EBE-9F00-C3896564C860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -436,7 +435,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -458,7 +457,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +488,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -502,17 +507,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,24 +832,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
-    <col min="3" max="3" width="57.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="57.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,624 +868,624 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:3" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:3" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:3" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>65</v>
       </c>
@@ -1490,205 +1496,195 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B67" s="4" t="s">
+    <row r="67" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="6" t="s">
+    <row r="68" spans="1:3" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="6" t="s">
+    </row>
+    <row r="69" spans="1:3" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" s="6" t="s">
+    </row>
+    <row r="70" spans="1:3" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B71" s="7" t="s">
+    </row>
+    <row r="71" spans="1:3" s="7" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" s="4" t="s">
+    </row>
+    <row r="72" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="8" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B73" s="4" t="s">
+    <row r="73" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="4" t="s">
+    <row r="76" spans="1:3" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="4" t="s">
+    <row r="77" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -1698,7 +1694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>97</v>
       </c>
@@ -1709,7 +1705,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>97</v>
       </c>
@@ -1720,7 +1716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>97</v>
       </c>
@@ -1731,7 +1727,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>97</v>
       </c>
@@ -1742,7 +1738,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>97</v>
       </c>
@@ -1753,7 +1749,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>97</v>
       </c>
